--- a/KJSPMW_0315/KJSPMW_2fel.xlsx
+++ b/KJSPMW_0315/KJSPMW_2fel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Roland\Egyetem\OS\OsGyak_0315\KJSPMW_0315\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BD443D-C85C-41AD-8D30-2D2131D6E8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A692E10-950E-4543-994F-1A1B3AC7FECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2724" yWindow="1536" windowWidth="12708" windowHeight="8952" xr2:uid="{E75D364A-FB86-45A6-9C1E-1566CCE20822}"/>
+    <workbookView xWindow="11460" yWindow="1272" windowWidth="12708" windowHeight="8952" xr2:uid="{E75D364A-FB86-45A6-9C1E-1566CCE20822}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
   <si>
     <t>RR:5ms</t>
   </si>
@@ -59,13 +59,49 @@
   <si>
     <t>P5</t>
   </si>
+  <si>
+    <t>Átlagos várakozás</t>
+  </si>
+  <si>
+    <t>SJF</t>
+  </si>
+  <si>
+    <t>Arrival Time</t>
+  </si>
+  <si>
+    <t>CPU Time</t>
+  </si>
+  <si>
+    <t>befejezés</t>
+  </si>
+  <si>
+    <t>Legrövidebb</t>
+  </si>
+  <si>
+    <t>Átlagos Várakozás</t>
+  </si>
+  <si>
+    <t>FCFS</t>
+  </si>
+  <si>
+    <t>RR:10ms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -203,11 +239,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -232,6 +305,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -546,163 +658,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135A29AA-FBD8-4866-BDAA-EBFABA332E34}">
-  <dimension ref="A1:AT9"/>
+  <dimension ref="A1:BY45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="46" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="77" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5">
+      <c r="G2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>2</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>3</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>4</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>5</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>6</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>7</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <v>8</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>9</v>
       </c>
-      <c r="R2" s="6">
+      <c r="S2" s="6">
         <v>10</v>
       </c>
-      <c r="S2" s="6">
+      <c r="T2" s="6">
         <v>11</v>
       </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
         <v>12</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <v>13</v>
       </c>
-      <c r="V2" s="6">
+      <c r="W2" s="6">
         <v>14</v>
       </c>
-      <c r="W2" s="6">
+      <c r="X2" s="6">
         <v>15</v>
       </c>
-      <c r="X2" s="6">
+      <c r="Y2" s="6">
         <v>16</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Z2" s="6">
         <v>17</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="6">
         <v>18</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="6">
         <v>19</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AC2" s="6">
         <v>20</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AD2" s="6">
         <v>21</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AE2" s="6">
         <v>22</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AF2" s="6">
         <v>23</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AG2" s="6">
         <v>24</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AH2" s="6">
         <v>25</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AI2" s="6">
         <v>26</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AJ2" s="6">
         <v>27</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AK2" s="6">
         <v>28</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AL2" s="6">
         <v>29</v>
       </c>
-      <c r="AL2" s="6">
+      <c r="AM2" s="6">
         <v>30</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AN2" s="6">
         <v>31</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AO2" s="6">
         <v>32</v>
       </c>
-      <c r="AO2" s="6">
+      <c r="AP2" s="6">
         <v>33</v>
       </c>
-      <c r="AP2" s="6">
+      <c r="AQ2" s="6">
         <v>34</v>
       </c>
-      <c r="AQ2" s="6">
+      <c r="AR2" s="6">
         <v>35</v>
       </c>
-      <c r="AR2" s="6">
+      <c r="AS2" s="6">
         <v>36</v>
       </c>
-      <c r="AS2" s="6">
+      <c r="AT2" s="6">
         <v>37</v>
       </c>
-      <c r="AT2" s="7">
+      <c r="AU2" s="7">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -721,12 +838,15 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="G3" s="25">
+        <f>AVERAGE(F3:F9)</f>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -760,43 +880,44 @@
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AT3" s="10"/>
-    </row>
-    <row r="4" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="10"/>
+    </row>
+    <row r="4" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>8.3000000000000007</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>8.1300000000000008</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="12"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="12"/>
-      <c r="S4" s="13"/>
+      <c r="S4" s="12"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
-      <c r="V4" s="3"/>
+      <c r="V4" s="13"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -820,28 +941,39 @@
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
-      <c r="AT4" s="10"/>
-    </row>
-    <row r="5" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="10"/>
+    </row>
+    <row r="5" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="3"/>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="9"/>
+      <c r="P5" s="12"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="9"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -868,9 +1000,10 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
-      <c r="AT5" s="10"/>
-    </row>
-    <row r="6" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="10"/>
+    </row>
+    <row r="6" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +1022,9 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -899,22 +1032,22 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="9"/>
+      <c r="U6" s="12"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="12"/>
+      <c r="AA6" s="9"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
-      <c r="AF6" s="9"/>
+      <c r="AF6" s="12"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
@@ -928,9 +1061,10 @@
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
-      <c r="AT6" s="14"/>
-    </row>
-    <row r="7" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="14"/>
+    </row>
+    <row r="7" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,9 +1083,9 @@
       <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
@@ -962,19 +1096,19 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="17"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="18"/>
+      <c r="Z7" s="17"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="18"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
       <c r="AI7" s="16"/>
@@ -988,18 +1122,30 @@
       <c r="AQ7" s="16"/>
       <c r="AR7" s="16"/>
       <c r="AS7" s="16"/>
-      <c r="AT7" s="19"/>
-    </row>
-    <row r="8" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="19"/>
+    </row>
+    <row r="8" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,9 +1164,2297 @@
       <c r="F9" s="2">
         <v>6</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="11" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
+        <v>3</v>
+      </c>
+      <c r="M12" s="6">
+        <v>4</v>
+      </c>
+      <c r="N12" s="6">
+        <v>5</v>
+      </c>
+      <c r="O12" s="6">
+        <v>6</v>
+      </c>
+      <c r="P12" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>8</v>
+      </c>
+      <c r="R12" s="6">
+        <v>9</v>
+      </c>
+      <c r="S12" s="6">
+        <v>10</v>
+      </c>
+      <c r="T12" s="6">
+        <v>11</v>
+      </c>
+      <c r="U12" s="6">
+        <v>12</v>
+      </c>
+      <c r="V12" s="6">
+        <v>13</v>
+      </c>
+      <c r="W12" s="6">
+        <v>14</v>
+      </c>
+      <c r="X12" s="6">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>21</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>24</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>26</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>27</v>
+      </c>
+      <c r="AK12" s="6">
+        <v>28</v>
+      </c>
+      <c r="AL12" s="6">
+        <v>29</v>
+      </c>
+      <c r="AM12" s="6">
+        <v>30</v>
+      </c>
+      <c r="AN12" s="6">
+        <v>31</v>
+      </c>
+      <c r="AO12" s="6">
+        <v>32</v>
+      </c>
+      <c r="AP12" s="6">
+        <v>33</v>
+      </c>
+      <c r="AQ12" s="6">
+        <v>34</v>
+      </c>
+      <c r="AR12" s="6">
+        <v>35</v>
+      </c>
+      <c r="AS12" s="6">
+        <v>36</v>
+      </c>
+      <c r="AT12" s="6">
+        <v>37</v>
+      </c>
+      <c r="AU12" s="6">
+        <v>38</v>
+      </c>
+      <c r="AV12" s="6">
+        <v>39</v>
+      </c>
+      <c r="AW12" s="6">
+        <v>40</v>
+      </c>
+      <c r="AX12" s="6">
+        <v>41</v>
+      </c>
+      <c r="AY12" s="6">
+        <v>42</v>
+      </c>
+      <c r="AZ12" s="6">
+        <v>43</v>
+      </c>
+      <c r="BA12" s="6">
+        <v>44</v>
+      </c>
+      <c r="BB12" s="6">
+        <v>45</v>
+      </c>
+      <c r="BC12" s="6">
+        <v>46</v>
+      </c>
+      <c r="BD12" s="6">
+        <v>47</v>
+      </c>
+      <c r="BE12" s="6">
+        <v>48</v>
+      </c>
+      <c r="BF12" s="6">
+        <v>49</v>
+      </c>
+      <c r="BG12" s="6">
+        <v>50</v>
+      </c>
+      <c r="BH12" s="6">
+        <v>51</v>
+      </c>
+      <c r="BI12" s="6">
+        <v>52</v>
+      </c>
+      <c r="BJ12" s="6">
+        <v>53</v>
+      </c>
+      <c r="BK12" s="6">
+        <v>54</v>
+      </c>
+      <c r="BL12" s="6">
+        <v>55</v>
+      </c>
+      <c r="BM12" s="6">
+        <v>56</v>
+      </c>
+      <c r="BN12" s="6">
+        <v>57</v>
+      </c>
+      <c r="BO12" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="10"/>
+    </row>
+    <row r="14" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="10"/>
+    </row>
+    <row r="15" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="10"/>
+    </row>
+    <row r="16" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
+      <c r="BB16" s="18"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="18"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="18"/>
+      <c r="BG16" s="18"/>
+      <c r="BH16" s="18"/>
+      <c r="BI16" s="18"/>
+      <c r="BJ16" s="18"/>
+      <c r="BK16" s="18"/>
+      <c r="BL16" s="18"/>
+      <c r="BM16" s="18"/>
+      <c r="BN16" s="18"/>
+      <c r="BO16" s="24"/>
+    </row>
+    <row r="17" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="26">
+        <f>AVERAGE(F13:F16)</f>
+        <v>7.25</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="19" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>2</v>
+      </c>
+      <c r="L20" s="6">
+        <v>3</v>
+      </c>
+      <c r="M20" s="6">
+        <v>4</v>
+      </c>
+      <c r="N20" s="6">
+        <v>5</v>
+      </c>
+      <c r="O20" s="6">
+        <v>6</v>
+      </c>
+      <c r="P20" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>8</v>
+      </c>
+      <c r="R20" s="6">
+        <v>9</v>
+      </c>
+      <c r="S20" s="6">
+        <v>10</v>
+      </c>
+      <c r="T20" s="6">
+        <v>11</v>
+      </c>
+      <c r="U20" s="6">
+        <v>12</v>
+      </c>
+      <c r="V20" s="6">
+        <v>13</v>
+      </c>
+      <c r="W20" s="6">
+        <v>14</v>
+      </c>
+      <c r="X20" s="6">
+        <v>15</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>16</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>17</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>18</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>20</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>21</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>22</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>23</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>24</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI20" s="6">
+        <v>26</v>
+      </c>
+      <c r="AJ20" s="6">
+        <v>27</v>
+      </c>
+      <c r="AK20" s="6">
+        <v>28</v>
+      </c>
+      <c r="AL20" s="6">
+        <v>29</v>
+      </c>
+      <c r="AM20" s="6">
+        <v>30</v>
+      </c>
+      <c r="AN20" s="6">
+        <v>31</v>
+      </c>
+      <c r="AO20" s="6">
+        <v>32</v>
+      </c>
+      <c r="AP20" s="6">
+        <v>33</v>
+      </c>
+      <c r="AQ20" s="6">
+        <v>34</v>
+      </c>
+      <c r="AR20" s="6">
+        <v>35</v>
+      </c>
+      <c r="AS20" s="6">
+        <v>36</v>
+      </c>
+      <c r="AT20" s="6">
+        <v>37</v>
+      </c>
+      <c r="AU20" s="6">
+        <v>38</v>
+      </c>
+      <c r="AV20" s="6">
+        <v>39</v>
+      </c>
+      <c r="AW20" s="6">
+        <v>40</v>
+      </c>
+      <c r="AX20" s="6">
+        <v>41</v>
+      </c>
+      <c r="AY20" s="6">
+        <v>42</v>
+      </c>
+      <c r="AZ20" s="6">
+        <v>43</v>
+      </c>
+      <c r="BA20" s="6">
+        <v>44</v>
+      </c>
+      <c r="BB20" s="6">
+        <v>45</v>
+      </c>
+      <c r="BC20" s="6">
+        <v>46</v>
+      </c>
+      <c r="BD20" s="6">
+        <v>47</v>
+      </c>
+      <c r="BE20" s="6">
+        <v>48</v>
+      </c>
+      <c r="BF20" s="6">
+        <v>49</v>
+      </c>
+      <c r="BG20" s="6">
+        <v>50</v>
+      </c>
+      <c r="BH20" s="6">
+        <v>51</v>
+      </c>
+      <c r="BI20" s="6">
+        <v>52</v>
+      </c>
+      <c r="BJ20" s="6">
+        <v>53</v>
+      </c>
+      <c r="BK20" s="6">
+        <v>54</v>
+      </c>
+      <c r="BL20" s="6">
+        <v>55</v>
+      </c>
+      <c r="BM20" s="6">
+        <v>56</v>
+      </c>
+      <c r="BN20" s="6">
+        <v>57</v>
+      </c>
+      <c r="BO20" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="10"/>
+    </row>
+    <row r="22" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2">
+        <v>7</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="10"/>
+    </row>
+    <row r="23" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="10"/>
+    </row>
+    <row r="24" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>48</v>
+      </c>
+      <c r="E24" s="2">
+        <v>58</v>
+      </c>
+      <c r="F24" s="2">
+        <v>28</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="18"/>
+      <c r="BG24" s="18"/>
+      <c r="BH24" s="18"/>
+      <c r="BI24" s="18"/>
+      <c r="BJ24" s="18"/>
+      <c r="BK24" s="18"/>
+      <c r="BL24" s="18"/>
+      <c r="BM24" s="18"/>
+      <c r="BN24" s="18"/>
+      <c r="BO24" s="24"/>
+    </row>
+    <row r="25" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="26">
+        <f>AVERAGE(F21:F24)</f>
+        <v>11.25</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="27" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>2</v>
+      </c>
+      <c r="L28" s="6">
+        <v>3</v>
+      </c>
+      <c r="M28" s="6">
+        <v>4</v>
+      </c>
+      <c r="N28" s="6">
+        <v>5</v>
+      </c>
+      <c r="O28" s="6">
+        <v>6</v>
+      </c>
+      <c r="P28" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>8</v>
+      </c>
+      <c r="R28" s="6">
+        <v>9</v>
+      </c>
+      <c r="S28" s="6">
+        <v>10</v>
+      </c>
+      <c r="T28" s="6">
+        <v>11</v>
+      </c>
+      <c r="U28" s="6">
+        <v>12</v>
+      </c>
+      <c r="V28" s="6">
+        <v>13</v>
+      </c>
+      <c r="W28" s="6">
+        <v>14</v>
+      </c>
+      <c r="X28" s="6">
+        <v>15</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>16</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>17</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>18</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>20</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>21</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>22</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>23</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>24</v>
+      </c>
+      <c r="AH28" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI28" s="6">
+        <v>26</v>
+      </c>
+      <c r="AJ28" s="6">
+        <v>27</v>
+      </c>
+      <c r="AK28" s="6">
+        <v>28</v>
+      </c>
+      <c r="AL28" s="6">
+        <v>29</v>
+      </c>
+      <c r="AM28" s="6">
+        <v>30</v>
+      </c>
+      <c r="AN28" s="6">
+        <v>31</v>
+      </c>
+      <c r="AO28" s="6">
+        <v>32</v>
+      </c>
+      <c r="AP28" s="6">
+        <v>33</v>
+      </c>
+      <c r="AQ28" s="6">
+        <v>34</v>
+      </c>
+      <c r="AR28" s="6">
+        <v>35</v>
+      </c>
+      <c r="AS28" s="6">
+        <v>36</v>
+      </c>
+      <c r="AT28" s="6">
+        <v>37</v>
+      </c>
+      <c r="AU28" s="6">
+        <v>38</v>
+      </c>
+      <c r="AV28" s="6">
+        <v>39</v>
+      </c>
+      <c r="AW28" s="6">
+        <v>40</v>
+      </c>
+      <c r="AX28" s="6">
+        <v>41</v>
+      </c>
+      <c r="AY28" s="6">
+        <v>42</v>
+      </c>
+      <c r="AZ28" s="6">
+        <v>43</v>
+      </c>
+      <c r="BA28" s="6">
+        <v>44</v>
+      </c>
+      <c r="BB28" s="6">
+        <v>45</v>
+      </c>
+      <c r="BC28" s="6">
+        <v>46</v>
+      </c>
+      <c r="BD28" s="6">
+        <v>47</v>
+      </c>
+      <c r="BE28" s="6">
+        <v>48</v>
+      </c>
+      <c r="BF28" s="6">
+        <v>49</v>
+      </c>
+      <c r="BG28" s="6">
+        <v>50</v>
+      </c>
+      <c r="BH28" s="6">
+        <v>51</v>
+      </c>
+      <c r="BI28" s="6">
+        <v>52</v>
+      </c>
+      <c r="BJ28" s="6">
+        <v>53</v>
+      </c>
+      <c r="BK28" s="6">
+        <v>54</v>
+      </c>
+      <c r="BL28" s="6">
+        <v>55</v>
+      </c>
+      <c r="BM28" s="6">
+        <v>56</v>
+      </c>
+      <c r="BN28" s="6">
+        <v>57</v>
+      </c>
+      <c r="BO28" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D29-B29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+      <c r="BO29" s="10"/>
+    </row>
+    <row r="30" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1">
+        <v>22</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" ref="F30:F34" si="0">D30-B30</f>
+        <v>7</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+      <c r="BO30" s="10"/>
+    </row>
+    <row r="31" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1">
+        <v>17</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="9"/>
+      <c r="BE31" s="9"/>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="9"/>
+      <c r="BH31" s="9"/>
+      <c r="BI31" s="9"/>
+      <c r="BJ31" s="9"/>
+      <c r="BK31" s="9"/>
+      <c r="BL31" s="9"/>
+      <c r="BM31" s="9"/>
+      <c r="BN31" s="9"/>
+      <c r="BO31" s="14"/>
+    </row>
+    <row r="32" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1">
+        <v>32</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="18"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
+      <c r="AS32" s="18"/>
+      <c r="AT32" s="18"/>
+      <c r="AU32" s="18"/>
+      <c r="AV32" s="18"/>
+      <c r="AW32" s="18"/>
+      <c r="AX32" s="18"/>
+      <c r="AY32" s="18"/>
+      <c r="AZ32" s="16"/>
+      <c r="BA32" s="16"/>
+      <c r="BB32" s="16"/>
+      <c r="BC32" s="16"/>
+      <c r="BD32" s="16"/>
+      <c r="BE32" s="16"/>
+      <c r="BF32" s="16"/>
+      <c r="BG32" s="16"/>
+      <c r="BH32" s="16"/>
+      <c r="BI32" s="16"/>
+      <c r="BJ32" s="16"/>
+      <c r="BK32" s="16"/>
+      <c r="BL32" s="16"/>
+      <c r="BM32" s="16"/>
+      <c r="BN32" s="16"/>
+      <c r="BO32" s="19"/>
+    </row>
+    <row r="33" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1">
+        <v>42</v>
+      </c>
+      <c r="E33" s="1">
+        <v>58</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>32</v>
+      </c>
+      <c r="E34" s="1">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="32">
+        <f>AVERAGE(F29:F34)</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+    </row>
+    <row r="37" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="6">
+        <v>2</v>
+      </c>
+      <c r="L38" s="6">
+        <v>3</v>
+      </c>
+      <c r="M38" s="6">
+        <v>4</v>
+      </c>
+      <c r="N38" s="6">
+        <v>5</v>
+      </c>
+      <c r="O38" s="6">
+        <v>6</v>
+      </c>
+      <c r="P38" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>8</v>
+      </c>
+      <c r="R38" s="6">
+        <v>9</v>
+      </c>
+      <c r="S38" s="6">
+        <v>10</v>
+      </c>
+      <c r="T38" s="6">
+        <v>11</v>
+      </c>
+      <c r="U38" s="6">
+        <v>12</v>
+      </c>
+      <c r="V38" s="6">
+        <v>13</v>
+      </c>
+      <c r="W38" s="6">
+        <v>14</v>
+      </c>
+      <c r="X38" s="6">
+        <v>15</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>16</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>17</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>18</v>
+      </c>
+      <c r="AB38" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC38" s="6">
+        <v>20</v>
+      </c>
+      <c r="AD38" s="6">
+        <v>21</v>
+      </c>
+      <c r="AE38" s="6">
+        <v>22</v>
+      </c>
+      <c r="AF38" s="6">
+        <v>23</v>
+      </c>
+      <c r="AG38" s="6">
+        <v>24</v>
+      </c>
+      <c r="AH38" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI38" s="6">
+        <v>26</v>
+      </c>
+      <c r="AJ38" s="6">
+        <v>27</v>
+      </c>
+      <c r="AK38" s="6">
+        <v>28</v>
+      </c>
+      <c r="AL38" s="6">
+        <v>29</v>
+      </c>
+      <c r="AM38" s="6">
+        <v>30</v>
+      </c>
+      <c r="AN38" s="6">
+        <v>31</v>
+      </c>
+      <c r="AO38" s="6">
+        <v>32</v>
+      </c>
+      <c r="AP38" s="6">
+        <v>33</v>
+      </c>
+      <c r="AQ38" s="6">
+        <v>34</v>
+      </c>
+      <c r="AR38" s="6">
+        <v>35</v>
+      </c>
+      <c r="AS38" s="6">
+        <v>36</v>
+      </c>
+      <c r="AT38" s="6">
+        <v>37</v>
+      </c>
+      <c r="AU38" s="6">
+        <v>38</v>
+      </c>
+      <c r="AV38" s="6">
+        <v>39</v>
+      </c>
+      <c r="AW38" s="6">
+        <v>40</v>
+      </c>
+      <c r="AX38" s="6">
+        <v>41</v>
+      </c>
+      <c r="AY38" s="6">
+        <v>42</v>
+      </c>
+      <c r="AZ38" s="6">
+        <v>43</v>
+      </c>
+      <c r="BA38" s="6">
+        <v>44</v>
+      </c>
+      <c r="BB38" s="6">
+        <v>45</v>
+      </c>
+      <c r="BC38" s="6">
+        <v>46</v>
+      </c>
+      <c r="BD38" s="6">
+        <v>47</v>
+      </c>
+      <c r="BE38" s="6">
+        <v>48</v>
+      </c>
+      <c r="BF38" s="6">
+        <v>49</v>
+      </c>
+      <c r="BG38" s="6">
+        <v>50</v>
+      </c>
+      <c r="BH38" s="6">
+        <v>51</v>
+      </c>
+      <c r="BI38" s="6">
+        <v>52</v>
+      </c>
+      <c r="BJ38" s="6">
+        <v>53</v>
+      </c>
+      <c r="BK38" s="6">
+        <v>54</v>
+      </c>
+      <c r="BL38" s="6">
+        <v>55</v>
+      </c>
+      <c r="BM38" s="6">
+        <v>56</v>
+      </c>
+      <c r="BN38" s="6">
+        <v>57</v>
+      </c>
+      <c r="BO38" s="6">
+        <v>58</v>
+      </c>
+      <c r="BP38" s="6">
+        <v>59</v>
+      </c>
+      <c r="BQ38" s="6">
+        <v>60</v>
+      </c>
+      <c r="BR38" s="6">
+        <v>61</v>
+      </c>
+      <c r="BS38" s="6">
+        <v>62</v>
+      </c>
+      <c r="BT38" s="6">
+        <v>63</v>
+      </c>
+      <c r="BU38" s="6">
+        <v>64</v>
+      </c>
+      <c r="BV38" s="6">
+        <v>65</v>
+      </c>
+      <c r="BW38" s="6">
+        <v>66</v>
+      </c>
+      <c r="BX38" s="6">
+        <v>67</v>
+      </c>
+      <c r="BY38" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="20">
+        <v>0</v>
+      </c>
+      <c r="C39" s="20">
+        <v>14</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0</v>
+      </c>
+      <c r="E39" s="20">
+        <v>10</v>
+      </c>
+      <c r="F39" s="20">
+        <f t="shared" ref="F39:F44" si="1">D39-B39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
+      <c r="BJ39" s="3"/>
+      <c r="BK39" s="3"/>
+      <c r="BL39" s="3"/>
+      <c r="BM39" s="3"/>
+      <c r="BN39" s="3"/>
+      <c r="BO39" s="3"/>
+      <c r="BP39" s="3"/>
+      <c r="BQ39" s="3"/>
+      <c r="BR39" s="3"/>
+      <c r="BS39" s="3"/>
+      <c r="BT39" s="3"/>
+      <c r="BU39" s="3"/>
+      <c r="BV39" s="3"/>
+      <c r="BW39" s="3"/>
+      <c r="BX39" s="3"/>
+      <c r="BY39" s="10"/>
+    </row>
+    <row r="40" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="20">
+        <v>10</v>
+      </c>
+      <c r="C40" s="20">
+        <v>4</v>
+      </c>
+      <c r="D40" s="20">
+        <v>18</v>
+      </c>
+      <c r="E40" s="20">
+        <v>22</v>
+      </c>
+      <c r="F40" s="20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3"/>
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="3"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
+      <c r="BQ40" s="3"/>
+      <c r="BR40" s="3"/>
+      <c r="BS40" s="3"/>
+      <c r="BT40" s="3"/>
+      <c r="BU40" s="3"/>
+      <c r="BV40" s="3"/>
+      <c r="BW40" s="3"/>
+      <c r="BX40" s="3"/>
+      <c r="BY40" s="10"/>
+    </row>
+    <row r="41" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="20">
+        <v>7</v>
+      </c>
+      <c r="C41" s="20">
+        <v>8</v>
+      </c>
+      <c r="D41" s="20">
+        <v>10</v>
+      </c>
+      <c r="E41" s="20">
+        <v>18</v>
+      </c>
+      <c r="F41" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="9"/>
+      <c r="AL41" s="9"/>
+      <c r="AM41" s="9"/>
+      <c r="AN41" s="9"/>
+      <c r="AO41" s="9"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
+      <c r="AX41" s="12"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="9"/>
+      <c r="BA41" s="9"/>
+      <c r="BB41" s="9"/>
+      <c r="BC41" s="9"/>
+      <c r="BD41" s="9"/>
+      <c r="BE41" s="9"/>
+      <c r="BF41" s="9"/>
+      <c r="BG41" s="9"/>
+      <c r="BH41" s="9"/>
+      <c r="BI41" s="9"/>
+      <c r="BJ41" s="9"/>
+      <c r="BK41" s="9"/>
+      <c r="BL41" s="9"/>
+      <c r="BM41" s="9"/>
+      <c r="BN41" s="9"/>
+      <c r="BO41" s="9"/>
+      <c r="BP41" s="9"/>
+      <c r="BQ41" s="9"/>
+      <c r="BR41" s="9"/>
+      <c r="BS41" s="9"/>
+      <c r="BT41" s="9"/>
+      <c r="BU41" s="9"/>
+      <c r="BV41" s="9"/>
+      <c r="BW41" s="9"/>
+      <c r="BX41" s="9"/>
+      <c r="BY41" s="14"/>
+    </row>
+    <row r="42" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="20">
+        <v>11</v>
+      </c>
+      <c r="C42" s="20">
+        <v>36</v>
+      </c>
+      <c r="D42" s="20">
+        <v>22</v>
+      </c>
+      <c r="E42" s="20">
+        <v>32</v>
+      </c>
+      <c r="F42" s="20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="17"/>
+      <c r="AP42" s="18"/>
+      <c r="AQ42" s="18"/>
+      <c r="AR42" s="18"/>
+      <c r="AS42" s="18"/>
+      <c r="AT42" s="18"/>
+      <c r="AU42" s="18"/>
+      <c r="AV42" s="18"/>
+      <c r="AW42" s="18"/>
+      <c r="AX42" s="18"/>
+      <c r="AY42" s="18"/>
+      <c r="AZ42" s="16"/>
+      <c r="BA42" s="16"/>
+      <c r="BB42" s="16"/>
+      <c r="BC42" s="16"/>
+      <c r="BD42" s="16"/>
+      <c r="BE42" s="16"/>
+      <c r="BF42" s="16"/>
+      <c r="BG42" s="16"/>
+      <c r="BH42" s="16"/>
+      <c r="BI42" s="16"/>
+      <c r="BJ42" s="16"/>
+      <c r="BK42" s="16"/>
+      <c r="BL42" s="16"/>
+      <c r="BM42" s="16"/>
+      <c r="BN42" s="16"/>
+      <c r="BO42" s="16"/>
+      <c r="BP42" s="16"/>
+      <c r="BQ42" s="16"/>
+      <c r="BR42" s="16"/>
+      <c r="BS42" s="16"/>
+      <c r="BT42" s="16"/>
+      <c r="BU42" s="16"/>
+      <c r="BV42" s="16"/>
+      <c r="BW42" s="16"/>
+      <c r="BX42" s="16"/>
+      <c r="BY42" s="19"/>
+    </row>
+    <row r="43" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="20">
+        <v>32</v>
+      </c>
+      <c r="C43" s="20">
+        <v>26</v>
+      </c>
+      <c r="D43" s="20">
+        <v>42</v>
+      </c>
+      <c r="E43" s="20">
+        <v>68</v>
+      </c>
+      <c r="F43" s="20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="20">
+        <v>20</v>
+      </c>
+      <c r="C44" s="20">
+        <v>10</v>
+      </c>
+      <c r="D44" s="20">
+        <v>32</v>
+      </c>
+      <c r="E44" s="20">
+        <v>42</v>
+      </c>
+      <c r="F44" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="26">
+        <f>AVERAGE(F39:F44)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B35:F35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>